--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Export this as TSV" sheetId="1" r:id="rId1"/>
+    <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
     <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
     <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
     <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="ablation_distan-ts_x_units list" sheetId="5" r:id="rId5"/>
-    <sheet name="ablation_distan-ts_y_units list" sheetId="6" r:id="rId6"/>
+    <sheet name="ablation_dista...s_x_units list" sheetId="5" r:id="rId5"/>
+    <sheet name="ablation_dista...s_y_units list" sheetId="6" r:id="rId6"/>
     <sheet name="ablation_frequency_unit list" sheetId="7" r:id="rId7"/>
     <sheet name="max_x_width_unit list" sheetId="8" r:id="rId8"/>
     <sheet name="max_y_height_unit list" sheetId="9" r:id="rId9"/>
@@ -1060,7 +1060,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1188,72 +1191,72 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="I2:I1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Imaging Mass Cytometry." sqref="J2:J1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="K2:K1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="S2:S1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="T2:T1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
-      <formula1>'ablation_distan-ts_x_units list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="U2:U1048576">
+      <formula1>'ablation_dista...s_x_units list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
-      <formula1>'ablation_distan-ts_y_units list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="W2:W1048576">
+      <formula1>'ablation_dista...s_y_units list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="X2:X1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Hz." sqref="Y2:Y1048576">
       <formula1>'ablation_frequency_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AA2:AA1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AE2:AE1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AF2:AF1048576">
       <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AH2:AH1048576">
       <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AI2:AI1048576">
       <formula1>'segment_data_format list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AJ2:AJ1048576">
       <formula1>'signal_type list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AL2:AL1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>

--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -194,7 +194,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>An acquisition_instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing molecular mass.</t>
+          <t>An acquisition instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing the molecular mass.</t>
         </r>
       </text>
     </comment>

--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="ablation_dista...s_x_units list" sheetId="5" r:id="rId5"/>
-    <sheet name="ablation_dista...s_y_units list" sheetId="6" r:id="rId6"/>
-    <sheet name="ablation_frequency_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="max_x_width_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="max_y_height_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="segment_data_format list" sheetId="10" r:id="rId10"/>
-    <sheet name="signal_type list" sheetId="11" r:id="rId11"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="ablation_dista...s_x_units list" sheetId="6" r:id="rId6"/>
+    <sheet name="ablation_dista...s_y_units list" sheetId="7" r:id="rId7"/>
+    <sheet name="ablation_frequency_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="max_x_width_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="max_y_height_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="segment_data_format list" sheetId="11" r:id="rId11"/>
+    <sheet name="signal_type list" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -38,11 +39,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Current version of metadata schema. Template provides the correct value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +568,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -1058,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1067,33 +1087,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -1105,158 +1125,164 @@
         <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="I2:I1048576">
+  <dataValidations count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="J2:J1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Imaging Mass Cytometry." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Imaging Mass Cytometry." sqref="K2:K1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="L2:L1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="M2:M1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="S2:S1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="T2:T1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="T2:T1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="U2:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="V2:V1048576">
       <formula1>'ablation_dista...s_x_units list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="X2:X1048576">
       <formula1>'ablation_dista...s_y_units list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="X2:X1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Y2:Y1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Hz." sqref="Y2:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Hz." sqref="Z2:Z1048576">
       <formula1>'ablation_frequency_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AA2:AA1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AB2:AB1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AD2:AD1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AE2:AE1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AF2:AF1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AF2:AF1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AG2:AG1048576">
       <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AH2:AH1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AH2:AH1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AI2:AI1048576">
       <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AJ2:AJ1048576">
       <formula1>'segment_data_format list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AJ2:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AK2:AK1048576">
       <formula1>'signal_type list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AL2:AL1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1268,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1276,17 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1304,17 +1320,45 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1376,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1386,12 +1430,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1409,12 +1448,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1463,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1471,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1494,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1512,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="ablation_dista...s_x_units list" sheetId="5" r:id="rId5"/>
-    <sheet name="ablation_dista...s_y_units list" sheetId="6" r:id="rId6"/>
-    <sheet name="ablation_frequency_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="max_x_width_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="max_y_height_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="segment_data_format list" sheetId="10" r:id="rId10"/>
-    <sheet name="signal_type list" sheetId="11" r:id="rId11"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="ablation_dista...s_x_units list" sheetId="6" r:id="rId6"/>
+    <sheet name="ablation_dista...s_y_units list" sheetId="7" r:id="rId7"/>
+    <sheet name="ablation_frequency_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="max_x_width_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="max_y_height_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="segment_data_format list" sheetId="11" r:id="rId11"/>
+    <sheet name="signal_type list" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -38,11 +39,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-text description of this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +581,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -1058,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AP1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1067,81 +1103,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>31</v>
@@ -1150,87 +1186,92 @@
         <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="I2:I1048576">
+  <dataValidations count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Imaging Mass Cytometry." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Imaging Mass Cytometry." sqref="L2:L1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="S2:S1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="U2:U1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="T2:T1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="U2:U1048576">
-      <formula1>'ablation_dista...s_x_units list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="W2:W1048576">
-      <formula1>'ablation_dista...s_y_units list'!$A$1:$A$2</formula1>
+      <formula1>'ablation_dista...s_x_units list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="X2:X1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Hz." sqref="Y2:Y1048576">
-      <formula1>'ablation_frequency_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="Y2:Y1048576">
+      <formula1>'ablation_dista...s_y_units list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Z2:Z1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Hz." sqref="AA2:AA1048576">
+      <formula1>'ablation_frequency_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
       <formula1>-1e+307</formula1>
@@ -1240,23 +1281,27 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AF2:AF1048576">
-      <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AH2:AH1048576">
+      <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AJ2:AJ1048576">
       <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AK2:AK1048576">
       <formula1>'segment_data_format list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AJ2:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AL2:AL1048576">
       <formula1>'signal_type list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AL2:AL1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AN2:AN1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1268,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1276,17 +1321,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1304,17 +1339,45 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1395,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1413,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1368,7 +1431,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1441,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1386,12 +1449,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1409,12 +1467,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1490,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1513,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1531,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -442,7 +442,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time stamp indicating end of ablation for ROI</t>
+          <t>Image width value of the ROI acquisition</t>
         </r>
       </text>
     </comment>
@@ -455,7 +455,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Image width value of the ROI acquisition</t>
+          <t>Units of image width of the ROI acquisition</t>
         </r>
       </text>
     </comment>
@@ -468,7 +468,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Units of image width of the ROI acquisition</t>
+          <t>Image height value of the ROI acquisition</t>
         </r>
       </text>
     </comment>
@@ -481,7 +481,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Image height value of the ROI acquisition</t>
+          <t>Units of image height of the ROI acquisition</t>
         </r>
       </text>
     </comment>
@@ -494,7 +494,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Units of image height of the ROI acquisition</t>
+          <t>This refers to the data type, which is a "float" for the IMC counts.</t>
         </r>
       </text>
     </comment>
@@ -507,7 +507,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This refers to the data type, which is a "float" for the IMC counts.</t>
+          <t>Type of signal measured per channel (usually dual counts)</t>
         </r>
       </text>
     </comment>
@@ -520,7 +520,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Type of signal measured per channel (usually dual counts)</t>
+          <t>Numerical data precision in bytes</t>
         </r>
       </text>
     </comment>
@@ -533,37 +533,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time stamp indicating start of ablation for ROI</t>
+          <t>Relative path to file with ORCID IDs for contributors for this dataset.</t>
         </r>
       </text>
     </comment>
     <comment ref="AN1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Numerical data precision in bytes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AO1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Relative path to file with ORCID IDs for contributors for this dataset.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -581,7 +555,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>version</t>
   </si>
@@ -697,9 +671,6 @@
     <t>dual_count_start</t>
   </si>
   <si>
-    <t>end_datetime</t>
-  </si>
-  <si>
     <t>max_x_width_value</t>
   </si>
   <si>
@@ -734,9 +705,6 @@
   </si>
   <si>
     <t>intensity value</t>
-  </si>
-  <si>
-    <t>start_datetime</t>
   </si>
   <si>
     <t>data_precision_bytes</t>
@@ -1094,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1103,7 +1071,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,22 +1181,16 @@
         <v>42</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1281,27 +1243,27 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AF2:AF1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AH2:AH1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AG2:AG1048576">
       <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AH2:AH1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AJ2:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AI2:AI1048576">
       <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AK2:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AJ2:AJ1048576">
       <formula1>'segment_data_format list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AL2:AL1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AK2:AK1048576">
       <formula1>'signal_type list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AN2:AN1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AL2:AL1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1339,17 +1301,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1367,17 +1329,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -533,11 +533,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Relative path to file with antibody information for this dataset.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Relative path to file with ORCID IDs for contributors for this dataset.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -555,7 +568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>version</t>
   </si>
@@ -708,6 +721,9 @@
   </si>
   <si>
     <t>data_precision_bytes</t>
+  </si>
+  <si>
+    <t>antibodies_path</t>
   </si>
   <si>
     <t>contributors_path</t>
@@ -1062,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1071,7 +1087,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,6 +1207,9 @@
       </c>
       <c r="AN1" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="ablation_dista...s_x_units list" sheetId="5" r:id="rId5"/>
-    <sheet name="ablation_dista...s_y_units list" sheetId="6" r:id="rId6"/>
-    <sheet name="ablation_frequency_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="max_x_width_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="max_y_height_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="segment_data_format list" sheetId="10" r:id="rId10"/>
-    <sheet name="signal_type list" sheetId="11" r:id="rId11"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="ablation_dista...s_x_units list" sheetId="6" r:id="rId6"/>
+    <sheet name="ablation_dista...s_y_units list" sheetId="7" r:id="rId7"/>
+    <sheet name="ablation_frequency_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="max_x_width_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="max_y_height_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="segment_data_format list" sheetId="11" r:id="rId11"/>
+    <sheet name="signal_type list" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -38,11 +39,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-text description of this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,20 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Time stamp indicating end of ablation for ROI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -497,19 +511,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Time stamp indicating start of ablation for ROI</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AL1" authorId="0">
       <text>
         <r>
@@ -532,11 +533,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Relative path to file with antibody information for this dataset.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Relative path to file with ORCID IDs for contributors for this dataset.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +568,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -661,9 +684,6 @@
     <t>dual_count_start</t>
   </si>
   <si>
-    <t>end_datetime</t>
-  </si>
-  <si>
     <t>max_x_width_value</t>
   </si>
   <si>
@@ -700,10 +720,10 @@
     <t>intensity value</t>
   </si>
   <si>
-    <t>start_datetime</t>
-  </si>
-  <si>
     <t>data_precision_bytes</t>
+  </si>
+  <si>
+    <t>antibodies_path</t>
   </si>
   <si>
     <t>contributors_path</t>
@@ -1058,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1067,81 +1087,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>31</v>
@@ -1150,87 +1170,89 @@
         <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="I2:I1048576">
+  <dataValidations count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Imaging Mass Cytometry." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Imaging Mass Cytometry." sqref="L2:L1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="S2:S1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="U2:U1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="T2:T1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="U2:U1048576">
-      <formula1>'ablation_dista...s_x_units list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="W2:W1048576">
-      <formula1>'ablation_dista...s_y_units list'!$A$1:$A$2</formula1>
+      <formula1>'ablation_dista...s_x_units list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="X2:X1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Hz." sqref="Y2:Y1048576">
-      <formula1>'ablation_frequency_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um / nm." sqref="Y2:Y1048576">
+      <formula1>'ablation_dista...s_y_units list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Z2:Z1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Hz." sqref="AA2:AA1048576">
+      <formula1>'ablation_frequency_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
       <formula1>-1e+307</formula1>
@@ -1240,20 +1262,24 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AF2:AF1048576">
-      <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AF2:AF1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AH2:AH1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AG2:AG1048576">
+      <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AH2:AH1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AI2:AI1048576">
       <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AI2:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AJ2:AJ1048576">
       <formula1>'segment_data_format list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AJ2:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AK2:AK1048576">
       <formula1>'signal_type list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AL2:AL1048576">
@@ -1268,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1276,17 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1304,17 +1320,45 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1376,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1394,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1368,7 +1412,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1386,12 +1430,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1409,12 +1448,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1463,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1471,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1494,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1512,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -208,7 +208,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>

--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -12,13 +12,14 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="ablation_dista...s_x_units list" sheetId="6" r:id="rId6"/>
-    <sheet name="ablation_dista...s_y_units list" sheetId="7" r:id="rId7"/>
-    <sheet name="ablation_frequency_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="max_x_width_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="max_y_height_unit list" sheetId="10" r:id="rId10"/>
-    <sheet name="segment_data_format list" sheetId="11" r:id="rId11"/>
-    <sheet name="signal_type list" sheetId="12" r:id="rId12"/>
+    <sheet name="is_targeted list" sheetId="6" r:id="rId6"/>
+    <sheet name="ablation_dista...s_x_units list" sheetId="7" r:id="rId7"/>
+    <sheet name="ablation_dista...s_y_units list" sheetId="8" r:id="rId8"/>
+    <sheet name="ablation_frequency_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="max_x_width_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="max_y_height_unit list" sheetId="11" r:id="rId11"/>
+    <sheet name="segment_data_format list" sheetId="12" r:id="rId12"/>
+    <sheet name="signal_type list" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -568,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>version</t>
   </si>
@@ -622,6 +623,12 @@
   </si>
   <si>
     <t>is_targeted</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>acquisition_instrument_vendor</t>
@@ -1131,85 +1138,85 @@
         <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1226,8 +1233,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="N2:N1048576">
+      <formula1>'is_targeted list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="U2:U1048576">
       <formula1>-2147483647</formula1>
@@ -1302,7 +1309,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1312,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1320,17 +1327,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1348,17 +1345,45 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1448,12 +1473,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1471,12 +1496,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1494,7 +1519,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1542,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -169,7 +169,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Each assay is placed into one of the following 3 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, and determination of nucleotide sequence.</t>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>

--- a/docs/imc/imc-metadata.xlsx
+++ b/docs/imc/imc-metadata.xlsx
@@ -1254,9 +1254,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Hz." sqref="AA2:AA1048576">
       <formula1>'ablation_frequency_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AC2:AC1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AE2:AE1048576">
       <formula1>-1e+307</formula1>
